--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Matthias</t>
   </si>
@@ -378,28 +378,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42425</v>
       </c>
       <c r="C3" s="1">
         <v>42432</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -409,8 +412,11 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -420,8 +426,11 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -431,8 +440,11 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -442,8 +454,11 @@
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -451,6 +466,9 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>Matthias</t>
   </si>
@@ -378,20 +378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42425</v>
       </c>
@@ -401,8 +401,11 @@
       <c r="D3" s="1">
         <v>42439</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -415,8 +418,11 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -429,8 +435,11 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -443,8 +452,11 @@
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -457,8 +469,11 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -469,6 +484,9 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>Matthias</t>
   </si>
@@ -45,13 +45,16 @@
   </si>
   <si>
     <t>ü</t>
+  </si>
+  <si>
+    <t>û</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +70,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
@@ -93,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -378,20 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42425</v>
       </c>
@@ -404,8 +414,11 @@
       <c r="E3" s="1">
         <v>42446</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -421,8 +434,11 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -438,8 +454,11 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -455,8 +474,11 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -472,8 +494,11 @@
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -487,6 +512,9 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>Matthias</t>
   </si>
@@ -388,20 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42425</v>
       </c>
@@ -417,8 +417,11 @@
       <c r="F3" s="1">
         <v>42453</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -437,8 +440,11 @@
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -457,8 +463,11 @@
       <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -477,8 +486,11 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -497,8 +509,11 @@
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -515,6 +530,9 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
   <si>
     <t>Matthias</t>
   </si>
@@ -388,20 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H4" sqref="H4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42425</v>
       </c>
@@ -420,8 +420,11 @@
       <c r="G3" s="1">
         <v>42460</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -443,8 +446,11 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -466,8 +472,11 @@
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -489,8 +498,11 @@
       <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -512,8 +524,11 @@
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -533,6 +548,9 @@
         <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
   <si>
     <t>Matthias</t>
   </si>
@@ -388,20 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42425</v>
       </c>
@@ -423,8 +423,11 @@
       <c r="H3" s="1">
         <v>42467</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>42474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -449,8 +452,11 @@
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -475,8 +481,11 @@
       <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -501,8 +510,11 @@
       <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -527,8 +539,11 @@
       <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -551,6 +566,9 @@
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="8">
   <si>
     <t>Matthias</t>
   </si>
@@ -388,20 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42425</v>
       </c>
@@ -426,8 +426,11 @@
       <c r="I3" s="1">
         <v>42474</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>42481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -455,8 +458,11 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -484,8 +490,11 @@
       <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -513,8 +522,11 @@
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -542,8 +554,11 @@
       <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -569,6 +584,9 @@
         <v>6</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>Matthias</t>
   </si>
@@ -388,20 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42425</v>
       </c>
@@ -429,8 +429,11 @@
       <c r="J3" s="1">
         <v>42481</v>
       </c>
+      <c r="K3" s="1">
+        <v>42488</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -461,8 +464,11 @@
       <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -493,8 +499,11 @@
       <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -525,8 +534,11 @@
       <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -557,8 +569,11 @@
       <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -587,6 +602,9 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
